--- a/writable/tmp/temp_dataTendik.xlsx
+++ b/writable/tmp/temp_dataTendik.xlsx
@@ -15,96 +15,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
-  <si>
-    <t>nik</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+  <si>
+    <t>member_id</t>
+  </si>
+  <si>
+    <t>noinduk</t>
   </si>
   <si>
     <t>nama</t>
   </si>
   <si>
-    <t>noid</t>
-  </si>
-  <si>
-    <t>tempatlahir</t>
-  </si>
-  <si>
-    <t>tgllahir</t>
-  </si>
-  <si>
-    <t>jk</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>sts_kepeg</t>
-  </si>
-  <si>
-    <t>alamat</t>
-  </si>
-  <si>
-    <t>nohp</t>
-  </si>
-  <si>
-    <t>npwp</t>
-  </si>
-  <si>
-    <t>rekeningbank</t>
-  </si>
-  <si>
-    <t>namabank</t>
-  </si>
-  <si>
-    <t>holdname</t>
-  </si>
-  <si>
-    <t>tmt</t>
-  </si>
-  <si>
-    <t>NIK</t>
-  </si>
-  <si>
-    <t>Nama Lengkap</t>
-  </si>
-  <si>
-    <t>NIP</t>
-  </si>
-  <si>
-    <t>Tempat Lahir</t>
-  </si>
-  <si>
-    <t>Tanggal Lahir</t>
-  </si>
-  <si>
-    <t>Jenis Kelamin</t>
-  </si>
-  <si>
-    <t>Status Perkawinan</t>
-  </si>
-  <si>
-    <t>Status Kepegawaian</t>
-  </si>
-  <si>
-    <t>ALamat</t>
-  </si>
-  <si>
-    <t>No. HP</t>
-  </si>
-  <si>
-    <t>NPWP</t>
-  </si>
-  <si>
-    <t>No. Rekening</t>
-  </si>
-  <si>
-    <t>Nama Bank</t>
-  </si>
-  <si>
-    <t>Nama Pemilik Rek</t>
-  </si>
-  <si>
-    <t>TMT Tugas</t>
+    <t>nisn</t>
+  </si>
+  <si>
+    <t>SLM</t>
+  </si>
+  <si>
+    <t>SAS</t>
+  </si>
+  <si>
+    <t>Putu Mardika I Nengah</t>
+  </si>
+  <si>
+    <t>Darma Winangun</t>
+  </si>
+  <si>
+    <t>04822767</t>
   </si>
 </sst>
 </file>
@@ -444,7 +381,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,7 +389,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -471,80 +408,32 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="B2">
+        <v>1024010010</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="D2">
+        <v>1234</v>
+      </c>
+      <c r="E2"/>
+      <c r="F2"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3">
+        <v>3324050011</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" t="s">
-        <v>29</v>
-      </c>
+      <c r="E3"/>
+      <c r="F3"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
